--- a/Excel/Motor.xlsx
+++ b/Excel/Motor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="262">
   <si>
     <t>Name</t>
   </si>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>195</v>
@@ -3658,7 +3658,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>227</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
         <v>218</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>240</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>244</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>238</v>
@@ -3717,11 +3717,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>207</v>
-      </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>246</v>
@@ -3730,14 +3727,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>224</v>
-      </c>
       <c r="D11" s="1"/>
       <c r="F11" s="4"/>
     </row>

--- a/Excel/Motor.xlsx
+++ b/Excel/Motor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xi\Desktop\RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xi\Documents\UiPath\Claim-Registartion-RPA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>CD017</t>
+  </si>
+  <si>
+    <t>Renewal Alert</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1227,7 @@
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1276,8 +1279,11 @@
       <c r="Q1" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R1" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
@@ -1327,8 +1333,11 @@
       <c r="Q2" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>151</v>
       </c>
@@ -1378,8 +1387,11 @@
       <c r="Q3" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>152</v>
       </c>
@@ -1429,8 +1441,11 @@
       <c r="Q4" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>153</v>
       </c>
@@ -1480,8 +1495,11 @@
       <c r="Q5" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>154</v>
       </c>
@@ -1533,8 +1551,11 @@
       <c r="Q6" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>155</v>
       </c>
@@ -1584,8 +1605,11 @@
       <c r="Q7" s="9" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -1635,8 +1659,11 @@
       <c r="Q8" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>157</v>
       </c>
@@ -1686,8 +1713,11 @@
       <c r="Q9" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>158</v>
       </c>
@@ -1737,8 +1767,11 @@
       <c r="Q10" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>159</v>
       </c>
@@ -1790,8 +1823,11 @@
       <c r="Q11" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>160</v>
       </c>
@@ -1841,8 +1877,11 @@
       <c r="Q12" s="9" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>161</v>
       </c>
@@ -1892,8 +1931,11 @@
       <c r="Q13" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -1943,8 +1985,11 @@
       <c r="Q14" s="9" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>163</v>
       </c>
@@ -1994,8 +2039,11 @@
       <c r="Q15" s="9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>164</v>
       </c>
@@ -2045,8 +2093,11 @@
       <c r="Q16" s="11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>165</v>
       </c>
@@ -2090,8 +2141,11 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>166</v>
       </c>
@@ -2135,8 +2189,11 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>167</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>168</v>
       </c>
@@ -2225,8 +2285,11 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>169</v>
       </c>
@@ -2270,8 +2333,11 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>170</v>
       </c>
@@ -2315,8 +2381,11 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>171</v>
       </c>
@@ -2360,8 +2429,11 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>172</v>
       </c>
@@ -2405,8 +2477,11 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>173</v>
       </c>
@@ -2450,8 +2525,11 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>174</v>
       </c>
@@ -2495,8 +2573,11 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>175</v>
       </c>
@@ -2540,8 +2621,11 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>176</v>
       </c>
@@ -2585,8 +2669,11 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>177</v>
       </c>
@@ -2630,8 +2717,11 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>178</v>
       </c>
@@ -2675,8 +2765,11 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>179</v>
       </c>
@@ -2720,8 +2813,11 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>180</v>
       </c>
@@ -2765,8 +2861,11 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>181</v>
       </c>
@@ -2810,8 +2909,11 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>182</v>
       </c>
@@ -2855,8 +2957,11 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>183</v>
       </c>
@@ -2900,8 +3005,11 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>184</v>
       </c>
@@ -2945,8 +3053,11 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>185</v>
       </c>
@@ -2990,8 +3101,11 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>186</v>
       </c>
@@ -3035,8 +3149,11 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>187</v>
       </c>
@@ -3080,8 +3197,11 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>188</v>
       </c>
@@ -3125,8 +3245,11 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>189</v>
       </c>
@@ -3170,8 +3293,11 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>190</v>
       </c>
@@ -3215,8 +3341,11 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>191</v>
       </c>
@@ -3260,8 +3389,11 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>192</v>
       </c>
@@ -3305,8 +3437,11 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>193</v>
       </c>
@@ -3350,8 +3485,11 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>194</v>
       </c>
@@ -3395,8 +3533,11 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>248</v>
       </c>
@@ -3440,8 +3581,11 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>252</v>
       </c>
@@ -3485,6 +3629,9 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
+      <c r="R48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I49" s="4"/>
@@ -3596,7 +3743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Motor.xlsx
+++ b/Excel/Motor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -288,51 +288,6 @@
     <t>Vishnupriya@gmail.com</t>
   </si>
   <si>
-    <t>AB016</t>
-  </si>
-  <si>
-    <t>AB017</t>
-  </si>
-  <si>
-    <t>AB018</t>
-  </si>
-  <si>
-    <t>AB019</t>
-  </si>
-  <si>
-    <t>AB020</t>
-  </si>
-  <si>
-    <t>AB021</t>
-  </si>
-  <si>
-    <t>AB022</t>
-  </si>
-  <si>
-    <t>AB023</t>
-  </si>
-  <si>
-    <t>AB024</t>
-  </si>
-  <si>
-    <t>AB025</t>
-  </si>
-  <si>
-    <t>AB026</t>
-  </si>
-  <si>
-    <t>AB027</t>
-  </si>
-  <si>
-    <t>AB028</t>
-  </si>
-  <si>
-    <t>AB029</t>
-  </si>
-  <si>
-    <t>AB030</t>
-  </si>
-  <si>
     <t>Aakash</t>
   </si>
   <si>
@@ -814,6 +769,51 @@
   </si>
   <si>
     <t>Renewal Alert</t>
+  </si>
+  <si>
+    <t>PR001</t>
+  </si>
+  <si>
+    <t>PR002</t>
+  </si>
+  <si>
+    <t>PR003</t>
+  </si>
+  <si>
+    <t>PR004</t>
+  </si>
+  <si>
+    <t>PR005</t>
+  </si>
+  <si>
+    <t>PR006</t>
+  </si>
+  <si>
+    <t>PR007</t>
+  </si>
+  <si>
+    <t>PR008</t>
+  </si>
+  <si>
+    <t>PR009</t>
+  </si>
+  <si>
+    <t>PR010</t>
+  </si>
+  <si>
+    <t>PR011</t>
+  </si>
+  <si>
+    <t>PR012</t>
+  </si>
+  <si>
+    <t>PR013</t>
+  </si>
+  <si>
+    <t>PR014</t>
+  </si>
+  <si>
+    <t>PR015</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,45 +1247,45 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>51</v>
@@ -1306,7 +1306,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I2" s="4">
         <v>9</v>
@@ -1325,13 +1325,13 @@
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1360,7 +1360,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I3" s="4">
         <v>11</v>
@@ -1379,13 +1379,13 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -1414,7 +1414,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I4" s="4">
         <v>10</v>
@@ -1433,13 +1433,13 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -1468,7 +1468,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I5" s="4">
         <v>8</v>
@@ -1487,13 +1487,13 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1522,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I6" s="4">
         <v>7</v>
@@ -1540,16 +1540,16 @@
         <v>500000</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -1578,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I7" s="4">
         <v>14</v>
@@ -1597,13 +1597,13 @@
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1632,7 +1632,7 @@
         <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I8" s="4">
         <v>6</v>
@@ -1651,13 +1651,13 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1686,7 +1686,7 @@
         <v>55</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I9" s="4">
         <v>15</v>
@@ -1705,13 +1705,13 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
@@ -1740,7 +1740,7 @@
         <v>53</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -1759,13 +1759,13 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -1794,7 +1794,7 @@
         <v>55</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I11" s="4">
         <v>4</v>
@@ -1812,16 +1812,16 @@
         <v>1000000</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I12" s="4">
         <v>15</v>
@@ -1869,13 +1869,13 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -1904,7 +1904,7 @@
         <v>53</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I13" s="4">
         <v>8</v>
@@ -1923,13 +1923,13 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -1958,7 +1958,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I14" s="4">
         <v>5</v>
@@ -1977,13 +1977,13 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -2012,7 +2012,7 @@
         <v>52</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I15" s="4">
         <v>13</v>
@@ -2031,13 +2031,13 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -2066,7 +2066,7 @@
         <v>52</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I16" s="4">
         <v>5</v>
@@ -2085,13 +2085,13 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>57</v>
@@ -2120,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I17" s="4">
         <v>9</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>37</v>
@@ -2168,7 +2168,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I18" s="4">
         <v>11</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>61</v>
@@ -2216,7 +2216,7 @@
         <v>62</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I19" s="4">
         <v>10</v>
@@ -2243,13 +2243,13 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -2264,7 +2264,7 @@
         <v>59</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I20" s="4">
         <v>8</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>66</v>
@@ -2312,7 +2312,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I21" s="4">
         <v>7</v>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>68</v>
@@ -2360,7 +2360,7 @@
         <v>58</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I22" s="4">
         <v>14</v>
@@ -2382,18 +2382,18 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>70</v>
@@ -2408,7 +2408,7 @@
         <v>62</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I23" s="4">
         <v>6</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>72</v>
@@ -2456,7 +2456,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I24" s="4">
         <v>15</v>
@@ -2483,13 +2483,13 @@
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>74</v>
@@ -2504,7 +2504,7 @@
         <v>58</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>76</v>
@@ -2552,7 +2552,7 @@
         <v>62</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I26" s="4">
         <v>4</v>
@@ -2579,13 +2579,13 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>78</v>
@@ -2600,7 +2600,7 @@
         <v>62</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I27" s="4">
         <v>15</v>
@@ -2627,13 +2627,13 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>80</v>
@@ -2648,7 +2648,7 @@
         <v>58</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I28" s="4">
         <v>8</v>
@@ -2675,13 +2675,13 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>82</v>
@@ -2696,7 +2696,7 @@
         <v>59</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I29" s="4">
         <v>5</v>
@@ -2723,13 +2723,13 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>84</v>
@@ -2744,7 +2744,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I30" s="4">
         <v>13</v>
@@ -2771,13 +2771,13 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>86</v>
@@ -2792,7 +2792,7 @@
         <v>58</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I31" s="4">
         <v>5</v>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E32" s="4">
         <v>9965151087</v>
@@ -2837,10 +2837,10 @@
         <v>40211</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I32" s="4">
         <v>9</v>
@@ -2867,16 +2867,16 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E33" s="4">
         <v>9965151236</v>
@@ -2885,10 +2885,10 @@
         <v>39572</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I33" s="4">
         <v>11</v>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E34" s="4">
         <v>9965151072</v>
@@ -2933,10 +2933,10 @@
         <v>39942</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I34" s="4">
         <v>10</v>
@@ -2963,16 +2963,16 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4">
         <v>9965151010</v>
@@ -2981,10 +2981,10 @@
         <v>40859</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I35" s="4">
         <v>8</v>
@@ -3006,21 +3006,21 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E36" s="4">
         <v>9965151097</v>
@@ -3029,10 +3029,10 @@
         <v>40931</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I36" s="4">
         <v>7</v>
@@ -3059,16 +3059,16 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4">
         <v>9965151002</v>
@@ -3077,10 +3077,10 @@
         <v>38441</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I37" s="4">
         <v>14</v>
@@ -3107,16 +3107,16 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E38" s="4">
         <v>9165151087</v>
@@ -3125,10 +3125,10 @@
         <v>41546</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I38" s="4">
         <v>6</v>
@@ -3155,16 +3155,16 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E39" s="4">
         <v>9955151087</v>
@@ -3173,10 +3173,10 @@
         <v>38347</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I39" s="4">
         <v>15</v>
@@ -3203,16 +3203,16 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E40" s="4">
         <v>9965101087</v>
@@ -3221,10 +3221,10 @@
         <v>43015</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4">
         <v>9965151787</v>
@@ -3269,10 +3269,10 @@
         <v>42104</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I41" s="4">
         <v>4</v>
@@ -3299,16 +3299,16 @@
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E42" s="4">
         <v>9974151087</v>
@@ -3317,10 +3317,10 @@
         <v>38280</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I42" s="4">
         <v>15</v>
@@ -3347,16 +3347,16 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E43" s="4">
         <v>9965154587</v>
@@ -3365,10 +3365,10 @@
         <v>40836</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I43" s="4">
         <v>8</v>
@@ -3395,16 +3395,16 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E44" s="4">
         <v>9745151087</v>
@@ -3413,10 +3413,10 @@
         <v>41684</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I44" s="4">
         <v>5</v>
@@ -3443,16 +3443,16 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E45" s="4">
         <v>9967151087</v>
@@ -3461,10 +3461,10 @@
         <v>38874</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I45" s="4">
         <v>13</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E46" s="4">
         <v>9965021587</v>
@@ -3509,10 +3509,10 @@
         <v>41733</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I46" s="4">
         <v>5</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>39</v>
@@ -3557,10 +3557,10 @@
         <v>40932</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="I47" s="4">
         <v>7</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>44</v>
@@ -3605,10 +3605,10 @@
         <v>42135</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I48" s="4">
         <v>4</v>
@@ -3743,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,16 +3758,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,13 +3775,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -3790,13 +3790,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -3805,76 +3805,82 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
         <v>207</v>
       </c>
-      <c r="C8" t="s">
-        <v>222</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F10" s="4"/>
     </row>
